--- a/tests/artifact/data/UI-CRUDOperationsForProductAndService.data.xlsx
+++ b/tests/artifact/data/UI-CRUDOperationsForProductAndService.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9252" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="270">
   <si>
     <t>login.screen</t>
   </si>
@@ -52,7 +52,7 @@
     <t>org.open</t>
   </si>
   <si>
-    <t>//button[text()=' Open ']</t>
+    <t>(//button[text()=' Open '])[2]</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -172,7 +172,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>crypt:a778b096dd48a3e533c7f774e607425ec041ca57f192e5de</t>
+    <t>crypt:abf7fdc1d3392f6d43dc9466f089b99f70fd7a3265814cb9</t>
   </si>
   <si>
     <t>button.submit</t>
@@ -641,6 +641,12 @@
   </si>
   <si>
     <t>sale.price</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>service.sale.price</t>
   </si>
   <si>
     <t>60</t>
@@ -768,15 +774,7 @@
     <t>godown.dd.value</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF202124"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Godown No1 (Godown address malad west Mumbai maharashtra)</t>
-    </r>
+    <t>Primary Godown (Primary Godown's address)</t>
   </si>
   <si>
     <t>godown.dropdown</t>
@@ -834,12 +832,33 @@
   </si>
   <si>
     <t>//div[@class='toast-body']</t>
+  </si>
+  <si>
+    <t>discount in percentage</t>
+  </si>
+  <si>
+    <t>create.discount.percentage</t>
+  </si>
+  <si>
+    <t>//*[@id='bi-input-11']</t>
+  </si>
+  <si>
+    <t>create.newdiscount.percentage</t>
+  </si>
+  <si>
+    <t>(//div[@class='card mt-2'])[2]/div[2]/div/div/div[2]/input</t>
+  </si>
+  <si>
+    <t>wait.ten.seconds</t>
+  </si>
+  <si>
+    <t>10000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -867,6 +886,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -1020,12 +1045,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1348,152 +1367,152 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1508,6 +1527,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1922,14 +1944,14 @@
   <sheetPr/>
   <dimension ref="A1:B265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.66428571428571" defaultRowHeight="16" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="112.416666666667" customWidth="1"/>
+    <col min="1" max="1" width="33.6642857142857" customWidth="1"/>
+    <col min="2" max="2" width="112.414285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2406,471 +2428,471 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B97" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B99" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B100" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B103" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B107" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B111" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B116" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -2878,151 +2900,171 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B121" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B122" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B124" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B125" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B126" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B127" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B129" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B131" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B132" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B133" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B138" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B139" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1"/>
@@ -3404,47 +3446,61 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1562" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1566" stopIfTrue="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1561" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="1565" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A3,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1560" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="1564" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A3,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1559" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="1563" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A3,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1564">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1568">
       <formula>LEN(TRIM(B3))&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1563" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1567" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="beginsWith" dxfId="3" priority="1541" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="3" priority="1545" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A5,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1542" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="2" priority="1546" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A5,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1543" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="1" priority="1547" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A5,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1544" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1548" stopIfTrue="1">
       <formula>LEN(TRIM(A5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="5" priority="1545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1549" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1546">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1550">
       <formula>LEN(TRIM(B5))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="beginsWith" dxfId="3" priority="1505" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A60,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1506" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A60,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1507" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A60,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1508" stopIfTrue="1">
+      <formula>LEN(TRIM(A60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A61">
@@ -3461,18 +3517,18 @@
       <formula>LEN(TRIM(A61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
-    <cfRule type="beginsWith" dxfId="3" priority="1497" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A62,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1498" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A62,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1499" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A62,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1500" stopIfTrue="1">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="beginsWith" dxfId="3" priority="51" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A94,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A94,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A94,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="54" stopIfTrue="1">
+      <formula>LEN(TRIM(A94))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A95">
@@ -3489,7 +3545,331 @@
       <formula>LEN(TRIM(A95))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A96">
+  <conditionalFormatting sqref="B120">
+    <cfRule type="expression" dxfId="5" priority="41" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="42">
+      <formula>LEN(TRIM(B120))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A131">
+    <cfRule type="beginsWith" dxfId="3" priority="21" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A131,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A131,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A131,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="24" stopIfTrue="1">
+      <formula>LEN(TRIM(A131))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A132">
+    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A132,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A132,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A132,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
+      <formula>LEN(TRIM(A132))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A133">
+    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A133,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A133,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A133,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
+      <formula>LEN(TRIM(A133))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A134">
+    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A134,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A134,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A134,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="12" stopIfTrue="1">
+      <formula>LEN(TRIM(A134))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A135">
+    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A135,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A135,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A135,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A135))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A139">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A139))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A139,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A139,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A139,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1560" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1559" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1558" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="1557" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A1,LEN("//"))="//"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A26">
+    <cfRule type="beginsWith" dxfId="3" priority="1551" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A6,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1552" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A6,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1553" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A6,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1554" stopIfTrue="1">
+      <formula>LEN(TRIM(A6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:A34">
+    <cfRule type="beginsWith" dxfId="3" priority="1539" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A33,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1540" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1541" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1542" stopIfTrue="1">
+      <formula>LEN(TRIM(A33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:A40">
+    <cfRule type="beginsWith" dxfId="3" priority="1515" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A39,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1516" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A39,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1517" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A39,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1518" stopIfTrue="1">
+      <formula>LEN(TRIM(A39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="beginsWith" dxfId="3" priority="1509" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A41,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1510" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A41,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1511" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A41,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1512" stopIfTrue="1">
+      <formula>LEN(TRIM(A41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:A59">
+    <cfRule type="beginsWith" dxfId="3" priority="1521" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A43,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1522" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A43,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1523" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A43,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1524" stopIfTrue="1">
+      <formula>LEN(TRIM(A43))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:A75">
+    <cfRule type="beginsWith" dxfId="3" priority="1497" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A62,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1498" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A62,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1499" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A62,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1500" stopIfTrue="1">
+      <formula>LEN(TRIM(A62))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A91">
+    <cfRule type="beginsWith" dxfId="3" priority="1527" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A76,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1528" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A76,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1529" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A76,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1530" stopIfTrue="1">
+      <formula>LEN(TRIM(A76))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:A93">
+    <cfRule type="beginsWith" dxfId="3" priority="55" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A92,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="56" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A92,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="57" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A92,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="58" stopIfTrue="1">
+      <formula>LEN(TRIM(A92))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A97:A113">
+    <cfRule type="beginsWith" dxfId="3" priority="33" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A97,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A97,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A97,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="36" stopIfTrue="1">
+      <formula>LEN(TRIM(A97))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B2">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1562">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1561" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B26">
+    <cfRule type="expression" dxfId="5" priority="1555" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1556">
+      <formula>LEN(TRIM(B6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:B34">
+    <cfRule type="expression" dxfId="5" priority="1543" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1544">
+      <formula>LEN(TRIM(B33))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:B40">
+    <cfRule type="expression" dxfId="5" priority="1519" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1520">
+      <formula>LEN(TRIM(B39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:B42">
+    <cfRule type="expression" dxfId="5" priority="1513" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1514">
+      <formula>LEN(TRIM(B41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:B59">
+    <cfRule type="expression" dxfId="5" priority="1525" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1526">
+      <formula>LEN(TRIM(B43))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4 A27:A29 A31:A32">
+    <cfRule type="beginsWith" dxfId="3" priority="1569" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A4,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1570" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A4,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1571" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A4,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1572" stopIfTrue="1">
+      <formula>LEN(TRIM(A4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4 B27:B29 B31:B32">
+    <cfRule type="expression" dxfId="5" priority="1573" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1574">
+      <formula>LEN(TRIM(B4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:A38 A30">
+    <cfRule type="beginsWith" dxfId="3" priority="1575" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A30,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="1576" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="1577" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1578" stopIfTrue="1">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:B38 B30">
+    <cfRule type="expression" dxfId="5" priority="1579" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1580">
+      <formula>LEN(TRIM(B30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96 A114">
     <cfRule type="beginsWith" dxfId="3" priority="43" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A96,LEN("//"))="//"</formula>
     </cfRule>
@@ -3503,341 +3883,17 @@
       <formula>LEN(TRIM(A96))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B120">
-    <cfRule type="expression" dxfId="5" priority="37" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="38">
-      <formula>LEN(TRIM(B120))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A131">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>LEN(TRIM(A131))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="19" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A131,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A131,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="17" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A131,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A132">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="16" stopIfTrue="1">
-      <formula>LEN(TRIM(A132))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="15" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A132,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="14" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A132,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="13" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A132,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="12" stopIfTrue="1">
-      <formula>LEN(TRIM(A133))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A133,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A133,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="9" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A133,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A134))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A134,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A134,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A134,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A135))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A135,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A135,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A135,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A2">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1556" stopIfTrue="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1555" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1554" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1553" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A1,LEN("//"))="//"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:A26">
-    <cfRule type="beginsWith" dxfId="3" priority="1547" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A6,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1548" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A6,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1549" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A6,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1550" stopIfTrue="1">
-      <formula>LEN(TRIM(A6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:A34">
-    <cfRule type="beginsWith" dxfId="3" priority="1535" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A33,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1536" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A33,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1537" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A33,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1538" stopIfTrue="1">
-      <formula>LEN(TRIM(A33))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A40">
-    <cfRule type="beginsWith" dxfId="3" priority="1511" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A39,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1512" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A39,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1513" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A39,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1514" stopIfTrue="1">
-      <formula>LEN(TRIM(A39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A42">
-    <cfRule type="beginsWith" dxfId="3" priority="1505" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A41,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1506" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A41,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1507" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A41,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1508" stopIfTrue="1">
-      <formula>LEN(TRIM(A41))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:A60">
-    <cfRule type="beginsWith" dxfId="3" priority="1517" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A43,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1518" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A43,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1519" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A43,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1520" stopIfTrue="1">
-      <formula>LEN(TRIM(A43))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A63:A76">
-    <cfRule type="beginsWith" dxfId="3" priority="1493" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A63,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1494" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A63,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1495" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A63,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1496" stopIfTrue="1">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A77:A92">
-    <cfRule type="beginsWith" dxfId="3" priority="1523" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A77,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1524" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A77,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1525" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A77,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1526" stopIfTrue="1">
-      <formula>LEN(TRIM(A77))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:A94">
-    <cfRule type="beginsWith" dxfId="3" priority="51" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A93,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A93,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A93,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="54" stopIfTrue="1">
-      <formula>LEN(TRIM(A93))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98:A113">
+  <conditionalFormatting sqref="A115:A130 A136:A138 A140:A265">
     <cfRule type="beginsWith" dxfId="3" priority="29" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A98,LEN("//"))="//"</formula>
+      <formula>LEFT(A115,LEN("//"))="//"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A98,LEN("nexial.scope."))="nexial.scope."</formula>
+      <formula>LEFT(A115,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="31" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A98,LEN("nexial."))="nexial."</formula>
+      <formula>LEFT(A115,LEN("nexial."))="nexial."</formula>
     </cfRule>
     <cfRule type="notContainsBlanks" dxfId="0" priority="32" stopIfTrue="1">
-      <formula>LEN(TRIM(A98))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B2">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1558">
-      <formula>LEN(TRIM(B1))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1557" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B26">
-    <cfRule type="expression" dxfId="5" priority="1551" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1552">
-      <formula>LEN(TRIM(B6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33:B34">
-    <cfRule type="expression" dxfId="5" priority="1539" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1540">
-      <formula>LEN(TRIM(B33))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B40">
-    <cfRule type="expression" dxfId="5" priority="1515" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1516">
-      <formula>LEN(TRIM(B39))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B42">
-    <cfRule type="expression" dxfId="5" priority="1509" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1510">
-      <formula>LEN(TRIM(B41))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B60">
-    <cfRule type="expression" dxfId="5" priority="1521" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1522">
-      <formula>LEN(TRIM(B43))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4 A27:A29 A31:A32">
-    <cfRule type="beginsWith" dxfId="3" priority="1565" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A4,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1566" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A4,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1567" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A4,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1568" stopIfTrue="1">
-      <formula>LEN(TRIM(A4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4 B27:B29 B31:B32">
-    <cfRule type="expression" dxfId="5" priority="1569" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1570">
-      <formula>LEN(TRIM(B4))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:A38 A30">
-    <cfRule type="beginsWith" dxfId="3" priority="1571" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A30,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1572" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="1573" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1574" stopIfTrue="1">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35:B38 B30">
-    <cfRule type="expression" dxfId="5" priority="1575" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1576">
-      <formula>LEN(TRIM(B30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A97 A114">
-    <cfRule type="beginsWith" dxfId="3" priority="39" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A97,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A97,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A97,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="42" stopIfTrue="1">
-      <formula>LEN(TRIM(A97))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A115:A130 A136:A265">
-    <cfRule type="beginsWith" dxfId="3" priority="25" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A115,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A115,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A115,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="28" stopIfTrue="1">
       <formula>LEN(TRIM(A115))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
